--- a/Financials/Yearly/HEINY_YR_FIN.xlsx
+++ b/Financials/Yearly/HEINY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF4789-870B-4B23-8528-9E3D2D672FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEINY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>HEINY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25692400</v>
+        <v>25212200</v>
       </c>
       <c r="E8" s="3">
-        <v>24405900</v>
+        <v>24245100</v>
       </c>
       <c r="F8" s="3">
-        <v>24076000</v>
+        <v>23328400</v>
       </c>
       <c r="G8" s="3">
-        <v>22604100</v>
+        <v>23013100</v>
       </c>
       <c r="H8" s="3">
-        <v>22540700</v>
+        <v>21606200</v>
       </c>
       <c r="I8" s="3">
-        <v>21578100</v>
+        <v>21545600</v>
       </c>
       <c r="J8" s="3">
+        <v>20625500</v>
+      </c>
+      <c r="K8" s="3">
         <v>20174300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12456500</v>
+        <v>12541600</v>
       </c>
       <c r="E9" s="3">
-        <v>11741600</v>
+        <v>11932400</v>
       </c>
       <c r="F9" s="3">
-        <v>11794400</v>
+        <v>11223300</v>
       </c>
       <c r="G9" s="3">
-        <v>10963400</v>
+        <v>11273800</v>
       </c>
       <c r="H9" s="3">
-        <v>11168800</v>
+        <v>10479400</v>
       </c>
       <c r="I9" s="3">
-        <v>11024400</v>
+        <v>10675700</v>
       </c>
       <c r="J9" s="3">
+        <v>10537700</v>
+      </c>
+      <c r="K9" s="3">
         <v>6650800</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13235900</v>
+        <v>12670600</v>
       </c>
       <c r="E10" s="3">
-        <v>12664200</v>
+        <v>12312700</v>
       </c>
       <c r="F10" s="3">
-        <v>12281600</v>
+        <v>12105200</v>
       </c>
       <c r="G10" s="3">
-        <v>11640700</v>
+        <v>11739400</v>
       </c>
       <c r="H10" s="3">
-        <v>11371900</v>
+        <v>11126800</v>
       </c>
       <c r="I10" s="3">
-        <v>10553700</v>
+        <v>10869800</v>
       </c>
       <c r="J10" s="3">
+        <v>10087800</v>
+      </c>
+      <c r="K10" s="3">
         <v>13523500</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>122100</v>
+        <v>232300</v>
       </c>
       <c r="E14" s="3">
-        <v>370900</v>
+        <v>116700</v>
       </c>
       <c r="F14" s="3">
-        <v>-328700</v>
+        <v>354500</v>
       </c>
       <c r="G14" s="3">
-        <v>57500</v>
+        <v>-314200</v>
       </c>
       <c r="H14" s="3">
-        <v>93900</v>
+        <v>55000</v>
       </c>
       <c r="I14" s="3">
-        <v>42300</v>
+        <v>89800</v>
       </c>
       <c r="J14" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K14" s="3">
         <v>62200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1821800</v>
+        <v>1726700</v>
       </c>
       <c r="E15" s="3">
-        <v>1797100</v>
+        <v>1741300</v>
       </c>
       <c r="F15" s="3">
-        <v>1866400</v>
+        <v>1717800</v>
       </c>
       <c r="G15" s="3">
-        <v>1686800</v>
+        <v>1784000</v>
       </c>
       <c r="H15" s="3">
-        <v>1855800</v>
+        <v>1612300</v>
       </c>
       <c r="I15" s="3">
-        <v>1543600</v>
+        <v>1773900</v>
       </c>
       <c r="J15" s="3">
+        <v>1475400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1371000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21858700</v>
+        <v>21674600</v>
       </c>
       <c r="E17" s="3">
-        <v>21172000</v>
+        <v>20580700</v>
       </c>
       <c r="F17" s="3">
-        <v>20466600</v>
+        <v>20237300</v>
       </c>
       <c r="G17" s="3">
-        <v>19340900</v>
+        <v>19563000</v>
       </c>
       <c r="H17" s="3">
-        <v>19542800</v>
+        <v>18487000</v>
       </c>
       <c r="I17" s="3">
-        <v>17238600</v>
+        <v>18680000</v>
       </c>
       <c r="J17" s="3">
+        <v>16477500</v>
+      </c>
+      <c r="K17" s="3">
         <v>17574300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3833700</v>
+        <v>3537600</v>
       </c>
       <c r="E18" s="3">
-        <v>3233800</v>
+        <v>3664400</v>
       </c>
       <c r="F18" s="3">
-        <v>3609500</v>
+        <v>3091100</v>
       </c>
       <c r="G18" s="3">
-        <v>3263200</v>
+        <v>3450100</v>
       </c>
       <c r="H18" s="3">
-        <v>2997900</v>
+        <v>3119100</v>
       </c>
       <c r="I18" s="3">
-        <v>4339600</v>
+        <v>2865600</v>
       </c>
       <c r="J18" s="3">
+        <v>4148000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2600000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>129100</v>
+        <v>215400</v>
       </c>
       <c r="E20" s="3">
-        <v>89200</v>
+        <v>123400</v>
       </c>
       <c r="F20" s="3">
-        <v>205400</v>
+        <v>85300</v>
       </c>
       <c r="G20" s="3">
-        <v>137300</v>
+        <v>196300</v>
       </c>
       <c r="H20" s="3">
-        <v>154900</v>
+        <v>131300</v>
       </c>
       <c r="I20" s="3">
-        <v>528200</v>
+        <v>148100</v>
       </c>
       <c r="J20" s="3">
+        <v>504900</v>
+      </c>
+      <c r="K20" s="3">
         <v>365100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5826900</v>
+        <v>5657200</v>
       </c>
       <c r="E21" s="3">
-        <v>5457300</v>
+        <v>5572700</v>
       </c>
       <c r="F21" s="3">
-        <v>5687200</v>
+        <v>5219900</v>
       </c>
       <c r="G21" s="3">
-        <v>5088400</v>
+        <v>5439200</v>
       </c>
       <c r="H21" s="3">
-        <v>5009900</v>
+        <v>4866600</v>
       </c>
       <c r="I21" s="3">
-        <v>6413600</v>
+        <v>4791800</v>
       </c>
       <c r="J21" s="3">
+        <v>6133000</v>
+      </c>
+      <c r="K21" s="3">
         <v>4337000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>549300</v>
+        <v>553100</v>
       </c>
       <c r="E22" s="3">
-        <v>491800</v>
+        <v>525100</v>
       </c>
       <c r="F22" s="3">
-        <v>483600</v>
+        <v>470100</v>
       </c>
       <c r="G22" s="3">
-        <v>536400</v>
+        <v>462300</v>
       </c>
       <c r="H22" s="3">
-        <v>679600</v>
+        <v>512700</v>
       </c>
       <c r="I22" s="3">
-        <v>655000</v>
+        <v>649600</v>
       </c>
       <c r="J22" s="3">
+        <v>626100</v>
+      </c>
+      <c r="K22" s="3">
         <v>588100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3413400</v>
+        <v>3199900</v>
       </c>
       <c r="E23" s="3">
-        <v>2831200</v>
+        <v>3262700</v>
       </c>
       <c r="F23" s="3">
-        <v>3331300</v>
+        <v>2706200</v>
       </c>
       <c r="G23" s="3">
-        <v>2864100</v>
+        <v>3184200</v>
       </c>
       <c r="H23" s="3">
-        <v>2473200</v>
+        <v>2737700</v>
       </c>
       <c r="I23" s="3">
-        <v>4212800</v>
+        <v>2364000</v>
       </c>
       <c r="J23" s="3">
+        <v>4026800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2377000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>939000</v>
+        <v>879600</v>
       </c>
       <c r="E24" s="3">
-        <v>790000</v>
+        <v>897600</v>
       </c>
       <c r="F24" s="3">
-        <v>818100</v>
+        <v>755100</v>
       </c>
       <c r="G24" s="3">
-        <v>859200</v>
+        <v>782000</v>
       </c>
       <c r="H24" s="3">
-        <v>610400</v>
+        <v>821300</v>
       </c>
       <c r="I24" s="3">
-        <v>604500</v>
+        <v>583400</v>
       </c>
       <c r="J24" s="3">
+        <v>577800</v>
+      </c>
+      <c r="K24" s="3">
         <v>545800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2474400</v>
+        <v>2320300</v>
       </c>
       <c r="E26" s="3">
-        <v>2041300</v>
+        <v>2365200</v>
       </c>
       <c r="F26" s="3">
-        <v>2513100</v>
+        <v>1951100</v>
       </c>
       <c r="G26" s="3">
-        <v>2004900</v>
+        <v>2402200</v>
       </c>
       <c r="H26" s="3">
-        <v>1862800</v>
+        <v>1916400</v>
       </c>
       <c r="I26" s="3">
-        <v>3608300</v>
+        <v>1780600</v>
       </c>
       <c r="J26" s="3">
+        <v>3449000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1831100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2218500</v>
+        <v>2104900</v>
       </c>
       <c r="E27" s="3">
-        <v>1807700</v>
+        <v>2120600</v>
       </c>
       <c r="F27" s="3">
-        <v>2220800</v>
+        <v>1727900</v>
       </c>
       <c r="G27" s="3">
-        <v>1779500</v>
+        <v>2122800</v>
       </c>
       <c r="H27" s="3">
-        <v>1601100</v>
+        <v>1700900</v>
       </c>
       <c r="I27" s="3">
-        <v>3420500</v>
+        <v>1530400</v>
       </c>
       <c r="J27" s="3">
+        <v>3269500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1678500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,17 +1318,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>52800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>30300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>50500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-129100</v>
+        <v>-215400</v>
       </c>
       <c r="E32" s="3">
-        <v>-89200</v>
+        <v>-123400</v>
       </c>
       <c r="F32" s="3">
-        <v>-205400</v>
+        <v>-85300</v>
       </c>
       <c r="G32" s="3">
-        <v>-137300</v>
+        <v>-196300</v>
       </c>
       <c r="H32" s="3">
-        <v>-154900</v>
+        <v>-131300</v>
       </c>
       <c r="I32" s="3">
-        <v>-528200</v>
+        <v>-148100</v>
       </c>
       <c r="J32" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-365100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2271300</v>
+        <v>2135100</v>
       </c>
       <c r="E33" s="3">
-        <v>1807700</v>
+        <v>2171100</v>
       </c>
       <c r="F33" s="3">
-        <v>2220800</v>
+        <v>1727900</v>
       </c>
       <c r="G33" s="3">
-        <v>1779500</v>
+        <v>2122800</v>
       </c>
       <c r="H33" s="3">
-        <v>1601100</v>
+        <v>1700900</v>
       </c>
       <c r="I33" s="3">
-        <v>3420500</v>
+        <v>1530400</v>
       </c>
       <c r="J33" s="3">
+        <v>3269500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1678500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2271300</v>
+        <v>2135100</v>
       </c>
       <c r="E35" s="3">
-        <v>1807700</v>
+        <v>2171100</v>
       </c>
       <c r="F35" s="3">
-        <v>2220800</v>
+        <v>1727900</v>
       </c>
       <c r="G35" s="3">
-        <v>1779500</v>
+        <v>2122800</v>
       </c>
       <c r="H35" s="3">
-        <v>1601100</v>
+        <v>1700900</v>
       </c>
       <c r="I35" s="3">
-        <v>3420500</v>
+        <v>1530400</v>
       </c>
       <c r="J35" s="3">
+        <v>3269500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1678500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2866400</v>
+        <v>3257100</v>
       </c>
       <c r="E41" s="3">
-        <v>3562500</v>
+        <v>2739900</v>
       </c>
       <c r="F41" s="3">
-        <v>3793800</v>
+        <v>3405200</v>
       </c>
       <c r="G41" s="3">
-        <v>784100</v>
+        <v>3626300</v>
       </c>
       <c r="H41" s="3">
-        <v>1514200</v>
+        <v>749500</v>
       </c>
       <c r="I41" s="3">
-        <v>2434500</v>
+        <v>1447400</v>
       </c>
       <c r="J41" s="3">
+        <v>2327000</v>
+      </c>
+      <c r="K41" s="3">
         <v>954300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>18800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>15300</v>
+        <v>18000</v>
       </c>
       <c r="H42" s="3">
-        <v>12900</v>
+        <v>14600</v>
       </c>
       <c r="I42" s="3">
-        <v>25800</v>
+        <v>12300</v>
       </c>
       <c r="J42" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K42" s="3">
         <v>16400</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3921700</v>
+        <v>3847300</v>
       </c>
       <c r="E43" s="3">
-        <v>3581300</v>
+        <v>3748600</v>
       </c>
       <c r="F43" s="3">
-        <v>6722400</v>
+        <v>3423200</v>
       </c>
       <c r="G43" s="3">
-        <v>3103600</v>
+        <v>6425600</v>
       </c>
       <c r="H43" s="3">
-        <v>2848800</v>
+        <v>2966500</v>
       </c>
       <c r="I43" s="3">
-        <v>5955900</v>
+        <v>2723100</v>
       </c>
       <c r="J43" s="3">
+        <v>5693000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2652800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2129300</v>
+        <v>2154200</v>
       </c>
       <c r="E44" s="3">
-        <v>1899200</v>
+        <v>2035300</v>
       </c>
       <c r="F44" s="3">
-        <v>3995600</v>
+        <v>1815400</v>
       </c>
       <c r="G44" s="3">
-        <v>1918000</v>
+        <v>3819300</v>
       </c>
       <c r="H44" s="3">
-        <v>1774800</v>
+        <v>1833300</v>
       </c>
       <c r="I44" s="3">
-        <v>3746800</v>
+        <v>1696400</v>
       </c>
       <c r="J44" s="3">
+        <v>3581400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1587000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>764200</v>
+        <v>917800</v>
       </c>
       <c r="E45" s="3">
-        <v>508300</v>
+        <v>730400</v>
       </c>
       <c r="F45" s="3">
-        <v>608000</v>
+        <v>485800</v>
       </c>
       <c r="G45" s="3">
-        <v>1322900</v>
+        <v>581200</v>
       </c>
       <c r="H45" s="3">
-        <v>299300</v>
+        <v>1264500</v>
       </c>
       <c r="I45" s="3">
-        <v>835800</v>
+        <v>286100</v>
       </c>
       <c r="J45" s="3">
+        <v>798900</v>
+      </c>
+      <c r="K45" s="3">
         <v>315800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9681600</v>
+        <v>10176400</v>
       </c>
       <c r="E46" s="3">
-        <v>9551300</v>
+        <v>9254200</v>
       </c>
       <c r="F46" s="3">
-        <v>9768400</v>
+        <v>9129600</v>
       </c>
       <c r="G46" s="3">
-        <v>7143800</v>
+        <v>9337200</v>
       </c>
       <c r="H46" s="3">
-        <v>6450100</v>
+        <v>6828400</v>
       </c>
       <c r="I46" s="3">
-        <v>6499400</v>
+        <v>6165300</v>
       </c>
       <c r="J46" s="3">
+        <v>6212500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5526300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3019000</v>
+        <v>3132600</v>
       </c>
       <c r="E47" s="3">
-        <v>3338300</v>
+        <v>2885800</v>
       </c>
       <c r="F47" s="3">
-        <v>3958100</v>
+        <v>3190900</v>
       </c>
       <c r="G47" s="3">
-        <v>3137600</v>
+        <v>3783400</v>
       </c>
       <c r="H47" s="3">
-        <v>3026100</v>
+        <v>2999100</v>
       </c>
       <c r="I47" s="3">
-        <v>7021700</v>
+        <v>2892500</v>
       </c>
       <c r="J47" s="3">
+        <v>6711700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3395800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13049200</v>
+        <v>12744700</v>
       </c>
       <c r="E48" s="3">
-        <v>10836600</v>
+        <v>12473200</v>
       </c>
       <c r="F48" s="3">
-        <v>22424500</v>
+        <v>10358200</v>
       </c>
       <c r="G48" s="3">
-        <v>10233300</v>
+        <v>21434500</v>
       </c>
       <c r="H48" s="3">
-        <v>9923400</v>
+        <v>9781500</v>
       </c>
       <c r="I48" s="3">
-        <v>20701300</v>
+        <v>9485300</v>
       </c>
       <c r="J48" s="3">
+        <v>19787400</v>
+      </c>
+      <c r="K48" s="3">
         <v>9226100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20741200</v>
+        <v>19588800</v>
       </c>
       <c r="E49" s="3">
-        <v>20452500</v>
+        <v>19825600</v>
       </c>
       <c r="F49" s="3">
-        <v>42686800</v>
+        <v>19549600</v>
       </c>
       <c r="G49" s="3">
-        <v>19181200</v>
+        <v>40802300</v>
       </c>
       <c r="H49" s="3">
-        <v>18703500</v>
+        <v>18334400</v>
       </c>
       <c r="I49" s="3">
-        <v>41568100</v>
+        <v>17877800</v>
       </c>
       <c r="J49" s="3">
+        <v>39733000</v>
+      </c>
+      <c r="K49" s="3">
         <v>12718200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1675000</v>
+        <v>1431700</v>
       </c>
       <c r="E52" s="3">
-        <v>1976700</v>
+        <v>1601100</v>
       </c>
       <c r="F52" s="3">
-        <v>1818200</v>
+        <v>1889400</v>
       </c>
       <c r="G52" s="3">
-        <v>1187900</v>
+        <v>2036400</v>
       </c>
       <c r="H52" s="3">
-        <v>1028300</v>
+        <v>1135500</v>
       </c>
       <c r="I52" s="3">
-        <v>2176200</v>
+        <v>982900</v>
       </c>
       <c r="J52" s="3">
+        <v>2080200</v>
+      </c>
+      <c r="K52" s="3">
         <v>975400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48166100</v>
+        <v>47074200</v>
       </c>
       <c r="E54" s="3">
-        <v>46155400</v>
+        <v>46039700</v>
       </c>
       <c r="F54" s="3">
-        <v>47095600</v>
+        <v>44117800</v>
       </c>
       <c r="G54" s="3">
-        <v>40883800</v>
+        <v>45016500</v>
       </c>
       <c r="H54" s="3">
-        <v>39131300</v>
+        <v>39078900</v>
       </c>
       <c r="I54" s="3">
-        <v>42233700</v>
+        <v>37403800</v>
       </c>
       <c r="J54" s="3">
+        <v>40369200</v>
+      </c>
+      <c r="K54" s="3">
         <v>31841900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4026200</v>
+        <v>4505900</v>
       </c>
       <c r="E57" s="3">
-        <v>3444000</v>
+        <v>3848400</v>
       </c>
       <c r="F57" s="3">
-        <v>10341300</v>
+        <v>3291900</v>
       </c>
       <c r="G57" s="3">
-        <v>2745500</v>
+        <v>9884700</v>
       </c>
       <c r="H57" s="3">
-        <v>2512000</v>
+        <v>2624300</v>
       </c>
       <c r="I57" s="3">
-        <v>5268100</v>
+        <v>2401100</v>
       </c>
       <c r="J57" s="3">
+        <v>5035500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2358200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3770300</v>
+        <v>2645700</v>
       </c>
       <c r="E58" s="3">
-        <v>4284400</v>
+        <v>3603800</v>
       </c>
       <c r="F58" s="3">
-        <v>6748200</v>
+        <v>4095300</v>
       </c>
       <c r="G58" s="3">
-        <v>2659900</v>
+        <v>6450300</v>
       </c>
       <c r="H58" s="3">
-        <v>2785500</v>
+        <v>2542400</v>
       </c>
       <c r="I58" s="3">
-        <v>4256200</v>
+        <v>2662500</v>
       </c>
       <c r="J58" s="3">
+        <v>4068300</v>
+      </c>
+      <c r="K58" s="3">
         <v>867400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4479300</v>
+        <v>4573200</v>
       </c>
       <c r="E59" s="3">
-        <v>4475700</v>
+        <v>4281500</v>
       </c>
       <c r="F59" s="3">
-        <v>4437000</v>
+        <v>4278100</v>
       </c>
       <c r="G59" s="3">
-        <v>4609600</v>
+        <v>4241100</v>
       </c>
       <c r="H59" s="3">
-        <v>4096600</v>
+        <v>4406100</v>
       </c>
       <c r="I59" s="3">
-        <v>8801200</v>
+        <v>3915700</v>
       </c>
       <c r="J59" s="3">
+        <v>8412700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4003900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12275700</v>
+        <v>11724800</v>
       </c>
       <c r="E60" s="3">
-        <v>12204100</v>
+        <v>11733800</v>
       </c>
       <c r="F60" s="3">
-        <v>12822700</v>
+        <v>11665300</v>
       </c>
       <c r="G60" s="3">
-        <v>10014900</v>
+        <v>12256600</v>
       </c>
       <c r="H60" s="3">
-        <v>9394000</v>
+        <v>9572800</v>
       </c>
       <c r="I60" s="3">
-        <v>9169800</v>
+        <v>8979300</v>
       </c>
       <c r="J60" s="3">
+        <v>8765000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7229500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14280600</v>
+        <v>14168500</v>
       </c>
       <c r="E61" s="3">
-        <v>12846200</v>
+        <v>13650100</v>
       </c>
       <c r="F61" s="3">
-        <v>12472900</v>
+        <v>12279100</v>
       </c>
       <c r="G61" s="3">
-        <v>11140600</v>
+        <v>11922300</v>
       </c>
       <c r="H61" s="3">
-        <v>11499800</v>
+        <v>10648800</v>
       </c>
       <c r="I61" s="3">
-        <v>13269900</v>
+        <v>10992100</v>
       </c>
       <c r="J61" s="3">
+        <v>12684100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9416300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4564900</v>
+        <v>3745200</v>
       </c>
       <c r="E62" s="3">
-        <v>3999200</v>
+        <v>4363400</v>
       </c>
       <c r="F62" s="3">
-        <v>4486300</v>
+        <v>3822600</v>
       </c>
       <c r="G62" s="3">
-        <v>3938100</v>
+        <v>4288200</v>
       </c>
       <c r="H62" s="3">
-        <v>3733900</v>
+        <v>3764300</v>
       </c>
       <c r="I62" s="3">
-        <v>9565400</v>
+        <v>3569100</v>
       </c>
       <c r="J62" s="3">
+        <v>9143100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3350100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32529800</v>
+        <v>30964700</v>
       </c>
       <c r="E66" s="3">
-        <v>30616500</v>
+        <v>31093700</v>
       </c>
       <c r="F66" s="3">
-        <v>31208100</v>
+        <v>29264900</v>
       </c>
       <c r="G66" s="3">
-        <v>26318000</v>
+        <v>29830300</v>
       </c>
       <c r="H66" s="3">
-        <v>25747500</v>
+        <v>25156100</v>
       </c>
       <c r="I66" s="3">
-        <v>28460200</v>
+        <v>24610900</v>
       </c>
       <c r="J66" s="3">
+        <v>27203800</v>
+      </c>
+      <c r="K66" s="3">
         <v>20369100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15011900</v>
+        <v>15826800</v>
       </c>
       <c r="E72" s="3">
-        <v>13646700</v>
+        <v>14349100</v>
       </c>
       <c r="F72" s="3">
-        <v>12478800</v>
+        <v>13044300</v>
       </c>
       <c r="G72" s="3">
-        <v>11686500</v>
+        <v>11927900</v>
       </c>
       <c r="H72" s="3">
-        <v>11083100</v>
+        <v>11170500</v>
       </c>
       <c r="I72" s="3">
-        <v>20139100</v>
+        <v>10593800</v>
       </c>
       <c r="J72" s="3">
+        <v>19250000</v>
+      </c>
+      <c r="K72" s="3">
         <v>8026500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15636300</v>
+        <v>16109500</v>
       </c>
       <c r="E76" s="3">
-        <v>15538900</v>
+        <v>14946000</v>
       </c>
       <c r="F76" s="3">
-        <v>15887500</v>
+        <v>14852900</v>
       </c>
       <c r="G76" s="3">
-        <v>14565800</v>
+        <v>15186100</v>
       </c>
       <c r="H76" s="3">
-        <v>13383800</v>
+        <v>13922800</v>
       </c>
       <c r="I76" s="3">
-        <v>13773500</v>
+        <v>12792900</v>
       </c>
       <c r="J76" s="3">
+        <v>13165400</v>
+      </c>
+      <c r="K76" s="3">
         <v>11472800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2271300</v>
+        <v>2135100</v>
       </c>
       <c r="E81" s="3">
-        <v>1807700</v>
+        <v>2171100</v>
       </c>
       <c r="F81" s="3">
-        <v>2220800</v>
+        <v>1727900</v>
       </c>
       <c r="G81" s="3">
-        <v>1779500</v>
+        <v>2122800</v>
       </c>
       <c r="H81" s="3">
-        <v>1601100</v>
+        <v>1700900</v>
       </c>
       <c r="I81" s="3">
-        <v>3420500</v>
+        <v>1530400</v>
       </c>
       <c r="J81" s="3">
+        <v>3269500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1678500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1862800</v>
+        <v>1899500</v>
       </c>
       <c r="E83" s="3">
-        <v>2132800</v>
+        <v>1780600</v>
       </c>
       <c r="F83" s="3">
-        <v>1871100</v>
+        <v>2038700</v>
       </c>
       <c r="G83" s="3">
-        <v>1686800</v>
+        <v>1788500</v>
       </c>
       <c r="H83" s="3">
-        <v>1855800</v>
+        <v>1612300</v>
       </c>
       <c r="I83" s="3">
-        <v>1544700</v>
+        <v>1773900</v>
       </c>
       <c r="J83" s="3">
+        <v>1476500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1371000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4556700</v>
+        <v>4923300</v>
       </c>
       <c r="E89" s="3">
-        <v>4364200</v>
+        <v>4355600</v>
       </c>
       <c r="F89" s="3">
-        <v>4095400</v>
+        <v>4171600</v>
       </c>
       <c r="G89" s="3">
-        <v>3589500</v>
+        <v>3914600</v>
       </c>
       <c r="H89" s="3">
-        <v>3420500</v>
+        <v>3431000</v>
       </c>
       <c r="I89" s="3">
-        <v>3163400</v>
+        <v>3269500</v>
       </c>
       <c r="J89" s="3">
+        <v>3023800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3417000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2151600</v>
+        <v>-2118300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2190300</v>
+        <v>-1902900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2030700</v>
+        <v>-1971300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1820600</v>
+        <v>-1837800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1697300</v>
+        <v>-1676300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1464900</v>
+        <v>-1536000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1312700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1004800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3480300</v>
+        <v>-2642300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2355800</v>
+        <v>-3326700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2422700</v>
+        <v>-2251800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1963800</v>
+        <v>-2315800</v>
       </c>
       <c r="H94" s="3">
-        <v>-987200</v>
+        <v>-1877100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6602700</v>
+        <v>-943600</v>
       </c>
       <c r="J94" s="3">
+        <v>-6311200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2060000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1186700</v>
+        <v>-1223000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1210200</v>
+        <v>-1134300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1067000</v>
+        <v>-1156800</v>
       </c>
       <c r="G96" s="3">
-        <v>-848700</v>
+        <v>-1019900</v>
       </c>
       <c r="H96" s="3">
-        <v>-833400</v>
+        <v>-811200</v>
       </c>
       <c r="I96" s="3">
-        <v>-709000</v>
+        <v>-796600</v>
       </c>
       <c r="J96" s="3">
+        <v>-677700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-680800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1133900</v>
+        <v>-1085000</v>
       </c>
       <c r="E100" s="3">
-        <v>-788800</v>
+        <v>-1083800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1376900</v>
+        <v>-754000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2879400</v>
+        <v>-1316100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2056500</v>
+        <v>-2752200</v>
       </c>
       <c r="I100" s="3">
-        <v>3587200</v>
+        <v>-1965700</v>
       </c>
       <c r="J100" s="3">
+        <v>3428800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1213700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-164300</v>
+        <v>5600</v>
       </c>
       <c r="E101" s="3">
-        <v>52800</v>
+        <v>-157100</v>
       </c>
       <c r="F101" s="3">
-        <v>-50500</v>
+        <v>50500</v>
       </c>
       <c r="G101" s="3">
-        <v>34000</v>
+        <v>-48200</v>
       </c>
       <c r="H101" s="3">
-        <v>-64600</v>
+        <v>32500</v>
       </c>
       <c r="I101" s="3">
-        <v>133800</v>
+        <v>-61700</v>
       </c>
       <c r="J101" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-221900</v>
+        <v>1201700</v>
       </c>
       <c r="E102" s="3">
-        <v>1272400</v>
+        <v>-212100</v>
       </c>
       <c r="F102" s="3">
-        <v>245300</v>
+        <v>1216200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1219600</v>
+        <v>234500</v>
       </c>
       <c r="H102" s="3">
-        <v>312200</v>
+        <v>-1165700</v>
       </c>
       <c r="I102" s="3">
-        <v>281700</v>
+        <v>298400</v>
       </c>
       <c r="J102" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K102" s="3">
         <v>150200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/HEINY_YR_FIN.xlsx
+++ b/Financials/Yearly/HEINY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF4789-870B-4B23-8528-9E3D2D672FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HEINY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25212200</v>
+        <v>24673200</v>
       </c>
       <c r="E8" s="3">
-        <v>24245100</v>
+        <v>23726700</v>
       </c>
       <c r="F8" s="3">
-        <v>23328400</v>
+        <v>22829600</v>
       </c>
       <c r="G8" s="3">
-        <v>23013100</v>
+        <v>22521100</v>
       </c>
       <c r="H8" s="3">
-        <v>21606200</v>
+        <v>21144200</v>
       </c>
       <c r="I8" s="3">
-        <v>21545600</v>
+        <v>21084900</v>
       </c>
       <c r="J8" s="3">
-        <v>20625500</v>
+        <v>20184500</v>
       </c>
       <c r="K8" s="3">
         <v>20174300</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12541600</v>
+        <v>12273400</v>
       </c>
       <c r="E9" s="3">
-        <v>11932400</v>
+        <v>11677200</v>
       </c>
       <c r="F9" s="3">
-        <v>11223300</v>
+        <v>10983300</v>
       </c>
       <c r="G9" s="3">
-        <v>11273800</v>
+        <v>11032700</v>
       </c>
       <c r="H9" s="3">
-        <v>10479400</v>
+        <v>10255300</v>
       </c>
       <c r="I9" s="3">
-        <v>10675700</v>
+        <v>10447500</v>
       </c>
       <c r="J9" s="3">
-        <v>10537700</v>
+        <v>10312400</v>
       </c>
       <c r="K9" s="3">
         <v>6650800</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12670600</v>
+        <v>12399700</v>
       </c>
       <c r="E10" s="3">
-        <v>12312700</v>
+        <v>12049500</v>
       </c>
       <c r="F10" s="3">
-        <v>12105200</v>
+        <v>11846300</v>
       </c>
       <c r="G10" s="3">
-        <v>11739400</v>
+        <v>11488400</v>
       </c>
       <c r="H10" s="3">
-        <v>11126800</v>
+        <v>10888900</v>
       </c>
       <c r="I10" s="3">
-        <v>10869800</v>
+        <v>10637400</v>
       </c>
       <c r="J10" s="3">
-        <v>10087800</v>
+        <v>9872100</v>
       </c>
       <c r="K10" s="3">
         <v>13523500</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>232300</v>
+        <v>282200</v>
       </c>
       <c r="E14" s="3">
-        <v>116700</v>
+        <v>28500</v>
       </c>
       <c r="F14" s="3">
-        <v>354500</v>
+        <v>347000</v>
       </c>
       <c r="G14" s="3">
-        <v>-314200</v>
+        <v>-307400</v>
       </c>
       <c r="H14" s="3">
-        <v>55000</v>
+        <v>53800</v>
       </c>
       <c r="I14" s="3">
-        <v>89800</v>
+        <v>87800</v>
       </c>
       <c r="J14" s="3">
-        <v>40400</v>
+        <v>39500</v>
       </c>
       <c r="K14" s="3">
         <v>62200</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1726700</v>
+        <v>1689800</v>
       </c>
       <c r="E15" s="3">
-        <v>1741300</v>
+        <v>1704100</v>
       </c>
       <c r="F15" s="3">
-        <v>1717800</v>
+        <v>1681000</v>
       </c>
       <c r="G15" s="3">
-        <v>1784000</v>
+        <v>1745800</v>
       </c>
       <c r="H15" s="3">
-        <v>1612300</v>
+        <v>1577800</v>
       </c>
       <c r="I15" s="3">
-        <v>1773900</v>
+        <v>1735900</v>
       </c>
       <c r="J15" s="3">
-        <v>1475400</v>
+        <v>1443900</v>
       </c>
       <c r="K15" s="3">
         <v>1371000</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21674600</v>
+        <v>21266100</v>
       </c>
       <c r="E17" s="3">
-        <v>20580700</v>
+        <v>20055000</v>
       </c>
       <c r="F17" s="3">
-        <v>20237300</v>
+        <v>19804600</v>
       </c>
       <c r="G17" s="3">
-        <v>19563000</v>
+        <v>19144700</v>
       </c>
       <c r="H17" s="3">
-        <v>18487000</v>
+        <v>18091700</v>
       </c>
       <c r="I17" s="3">
-        <v>18680000</v>
+        <v>18280600</v>
       </c>
       <c r="J17" s="3">
-        <v>16477500</v>
+        <v>16125200</v>
       </c>
       <c r="K17" s="3">
         <v>17574300</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3537600</v>
+        <v>3407100</v>
       </c>
       <c r="E18" s="3">
-        <v>3664400</v>
+        <v>3671700</v>
       </c>
       <c r="F18" s="3">
-        <v>3091100</v>
+        <v>3025000</v>
       </c>
       <c r="G18" s="3">
-        <v>3450100</v>
+        <v>3376400</v>
       </c>
       <c r="H18" s="3">
-        <v>3119100</v>
+        <v>3052400</v>
       </c>
       <c r="I18" s="3">
-        <v>2865600</v>
+        <v>2804300</v>
       </c>
       <c r="J18" s="3">
-        <v>4148000</v>
+        <v>4059300</v>
       </c>
       <c r="K18" s="3">
         <v>2600000</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>215400</v>
+        <v>265700</v>
       </c>
       <c r="E20" s="3">
-        <v>123400</v>
+        <v>35100</v>
       </c>
       <c r="F20" s="3">
-        <v>85300</v>
+        <v>83400</v>
       </c>
       <c r="G20" s="3">
-        <v>196300</v>
+        <v>192200</v>
       </c>
       <c r="H20" s="3">
-        <v>131300</v>
+        <v>128500</v>
       </c>
       <c r="I20" s="3">
-        <v>148100</v>
+        <v>144900</v>
       </c>
       <c r="J20" s="3">
-        <v>504900</v>
+        <v>494100</v>
       </c>
       <c r="K20" s="3">
         <v>365100</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5657200</v>
+        <v>5534600</v>
       </c>
       <c r="E21" s="3">
-        <v>5572700</v>
+        <v>5452100</v>
       </c>
       <c r="F21" s="3">
-        <v>5219900</v>
+        <v>5106600</v>
       </c>
       <c r="G21" s="3">
-        <v>5439200</v>
+        <v>5321400</v>
       </c>
       <c r="H21" s="3">
-        <v>4866600</v>
+        <v>4761200</v>
       </c>
       <c r="I21" s="3">
-        <v>4791800</v>
+        <v>4687900</v>
       </c>
       <c r="J21" s="3">
-        <v>6133000</v>
+        <v>6000600</v>
       </c>
       <c r="K21" s="3">
         <v>4337000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>553100</v>
+        <v>541300</v>
       </c>
       <c r="E22" s="3">
-        <v>525100</v>
+        <v>513900</v>
       </c>
       <c r="F22" s="3">
-        <v>470100</v>
+        <v>460100</v>
       </c>
       <c r="G22" s="3">
-        <v>462300</v>
+        <v>452400</v>
       </c>
       <c r="H22" s="3">
-        <v>512700</v>
+        <v>501800</v>
       </c>
       <c r="I22" s="3">
-        <v>649600</v>
+        <v>635700</v>
       </c>
       <c r="J22" s="3">
-        <v>626100</v>
+        <v>612700</v>
       </c>
       <c r="K22" s="3">
         <v>588100</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3199900</v>
+        <v>3131500</v>
       </c>
       <c r="E23" s="3">
-        <v>3262700</v>
+        <v>3193000</v>
       </c>
       <c r="F23" s="3">
-        <v>2706200</v>
+        <v>2648400</v>
       </c>
       <c r="G23" s="3">
-        <v>3184200</v>
+        <v>3116100</v>
       </c>
       <c r="H23" s="3">
-        <v>2737700</v>
+        <v>2679100</v>
       </c>
       <c r="I23" s="3">
-        <v>2364000</v>
+        <v>2313500</v>
       </c>
       <c r="J23" s="3">
-        <v>4026800</v>
+        <v>3940700</v>
       </c>
       <c r="K23" s="3">
         <v>2377000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>879600</v>
+        <v>860800</v>
       </c>
       <c r="E24" s="3">
-        <v>897600</v>
+        <v>878400</v>
       </c>
       <c r="F24" s="3">
-        <v>755100</v>
+        <v>739000</v>
       </c>
       <c r="G24" s="3">
-        <v>782000</v>
+        <v>765300</v>
       </c>
       <c r="H24" s="3">
-        <v>821300</v>
+        <v>803700</v>
       </c>
       <c r="I24" s="3">
-        <v>583400</v>
+        <v>571000</v>
       </c>
       <c r="J24" s="3">
-        <v>577800</v>
+        <v>565500</v>
       </c>
       <c r="K24" s="3">
         <v>545800</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2320300</v>
+        <v>2270700</v>
       </c>
       <c r="E26" s="3">
-        <v>2365200</v>
+        <v>2314600</v>
       </c>
       <c r="F26" s="3">
-        <v>1951100</v>
+        <v>1909400</v>
       </c>
       <c r="G26" s="3">
-        <v>2402200</v>
+        <v>2350800</v>
       </c>
       <c r="H26" s="3">
-        <v>1916400</v>
+        <v>1875400</v>
       </c>
       <c r="I26" s="3">
-        <v>1780600</v>
+        <v>1742500</v>
       </c>
       <c r="J26" s="3">
-        <v>3449000</v>
+        <v>3375300</v>
       </c>
       <c r="K26" s="3">
         <v>1831100</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2104900</v>
+        <v>2059800</v>
       </c>
       <c r="E27" s="3">
-        <v>2120600</v>
+        <v>2075200</v>
       </c>
       <c r="F27" s="3">
-        <v>1727900</v>
+        <v>1690900</v>
       </c>
       <c r="G27" s="3">
-        <v>2122800</v>
+        <v>2077400</v>
       </c>
       <c r="H27" s="3">
-        <v>1700900</v>
+        <v>1664600</v>
       </c>
       <c r="I27" s="3">
-        <v>1530400</v>
+        <v>1497700</v>
       </c>
       <c r="J27" s="3">
-        <v>3269500</v>
+        <v>3199600</v>
       </c>
       <c r="K27" s="3">
         <v>1678500</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,15 +1288,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="E29" s="3">
-        <v>50500</v>
+        <v>49400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-215400</v>
+        <v>-265700</v>
       </c>
       <c r="E32" s="3">
-        <v>-123400</v>
+        <v>-35100</v>
       </c>
       <c r="F32" s="3">
-        <v>-85300</v>
+        <v>-83400</v>
       </c>
       <c r="G32" s="3">
-        <v>-196300</v>
+        <v>-192200</v>
       </c>
       <c r="H32" s="3">
-        <v>-131300</v>
+        <v>-128500</v>
       </c>
       <c r="I32" s="3">
-        <v>-148100</v>
+        <v>-144900</v>
       </c>
       <c r="J32" s="3">
-        <v>-504900</v>
+        <v>-494100</v>
       </c>
       <c r="K32" s="3">
         <v>-365100</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2135100</v>
+        <v>2089500</v>
       </c>
       <c r="E33" s="3">
-        <v>2171100</v>
+        <v>2124600</v>
       </c>
       <c r="F33" s="3">
-        <v>1727900</v>
+        <v>1690900</v>
       </c>
       <c r="G33" s="3">
-        <v>2122800</v>
+        <v>2077400</v>
       </c>
       <c r="H33" s="3">
-        <v>1700900</v>
+        <v>1664600</v>
       </c>
       <c r="I33" s="3">
-        <v>1530400</v>
+        <v>1497700</v>
       </c>
       <c r="J33" s="3">
-        <v>3269500</v>
+        <v>3199600</v>
       </c>
       <c r="K33" s="3">
         <v>1678500</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2135100</v>
+        <v>2089500</v>
       </c>
       <c r="E35" s="3">
-        <v>2171100</v>
+        <v>2124600</v>
       </c>
       <c r="F35" s="3">
-        <v>1727900</v>
+        <v>1690900</v>
       </c>
       <c r="G35" s="3">
-        <v>2122800</v>
+        <v>2077400</v>
       </c>
       <c r="H35" s="3">
-        <v>1700900</v>
+        <v>1664600</v>
       </c>
       <c r="I35" s="3">
-        <v>1530400</v>
+        <v>1497700</v>
       </c>
       <c r="J35" s="3">
-        <v>3269500</v>
+        <v>3199600</v>
       </c>
       <c r="K35" s="3">
         <v>1678500</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,37 +1561,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3257100</v>
+        <v>3187500</v>
       </c>
       <c r="E41" s="3">
-        <v>2739900</v>
+        <v>2681300</v>
       </c>
       <c r="F41" s="3">
-        <v>3405200</v>
+        <v>3332400</v>
       </c>
       <c r="G41" s="3">
-        <v>3626300</v>
+        <v>3548700</v>
       </c>
       <c r="H41" s="3">
-        <v>749500</v>
+        <v>733500</v>
       </c>
       <c r="I41" s="3">
-        <v>1447400</v>
+        <v>1416400</v>
       </c>
       <c r="J41" s="3">
-        <v>2327000</v>
+        <v>2277300</v>
       </c>
       <c r="K41" s="3">
         <v>954300</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1640,233 +1605,233 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="H42" s="3">
-        <v>14600</v>
+        <v>14300</v>
       </c>
       <c r="I42" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="J42" s="3">
-        <v>24700</v>
+        <v>24200</v>
       </c>
       <c r="K42" s="3">
         <v>16400</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3847300</v>
+        <v>7932000</v>
       </c>
       <c r="E43" s="3">
-        <v>3748600</v>
+        <v>3668400</v>
       </c>
       <c r="F43" s="3">
-        <v>3423200</v>
+        <v>3350000</v>
       </c>
       <c r="G43" s="3">
-        <v>6425600</v>
+        <v>6288200</v>
       </c>
       <c r="H43" s="3">
-        <v>2966500</v>
+        <v>2903100</v>
       </c>
       <c r="I43" s="3">
-        <v>2723100</v>
+        <v>2664800</v>
       </c>
       <c r="J43" s="3">
-        <v>5693000</v>
+        <v>5571300</v>
       </c>
       <c r="K43" s="3">
         <v>2652800</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2154200</v>
+        <v>4216300</v>
       </c>
       <c r="E44" s="3">
-        <v>2035300</v>
+        <v>1991800</v>
       </c>
       <c r="F44" s="3">
-        <v>1815400</v>
+        <v>1776600</v>
       </c>
       <c r="G44" s="3">
-        <v>3819300</v>
+        <v>3737600</v>
       </c>
       <c r="H44" s="3">
-        <v>1833300</v>
+        <v>1794100</v>
       </c>
       <c r="I44" s="3">
-        <v>1696400</v>
+        <v>1660200</v>
       </c>
       <c r="J44" s="3">
-        <v>3581400</v>
+        <v>3504800</v>
       </c>
       <c r="K44" s="3">
         <v>1587000</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>917800</v>
+        <v>898200</v>
       </c>
       <c r="E45" s="3">
-        <v>730400</v>
+        <v>714800</v>
       </c>
       <c r="F45" s="3">
-        <v>485800</v>
+        <v>475400</v>
       </c>
       <c r="G45" s="3">
-        <v>581200</v>
+        <v>568800</v>
       </c>
       <c r="H45" s="3">
-        <v>1264500</v>
+        <v>1237400</v>
       </c>
       <c r="I45" s="3">
-        <v>286100</v>
+        <v>280000</v>
       </c>
       <c r="J45" s="3">
-        <v>798900</v>
+        <v>781800</v>
       </c>
       <c r="K45" s="3">
         <v>315800</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10176400</v>
+        <v>10019300</v>
       </c>
       <c r="E46" s="3">
-        <v>9254200</v>
+        <v>9056300</v>
       </c>
       <c r="F46" s="3">
-        <v>9129600</v>
+        <v>8934400</v>
       </c>
       <c r="G46" s="3">
-        <v>9337200</v>
+        <v>9137600</v>
       </c>
       <c r="H46" s="3">
-        <v>6828400</v>
+        <v>6682400</v>
       </c>
       <c r="I46" s="3">
-        <v>6165300</v>
+        <v>6033500</v>
       </c>
       <c r="J46" s="3">
-        <v>6212500</v>
+        <v>6079600</v>
       </c>
       <c r="K46" s="3">
         <v>5526300</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3132600</v>
+        <v>3440000</v>
       </c>
       <c r="E47" s="3">
-        <v>2885800</v>
+        <v>2824100</v>
       </c>
       <c r="F47" s="3">
-        <v>3190900</v>
+        <v>3122700</v>
       </c>
       <c r="G47" s="3">
-        <v>3783400</v>
+        <v>3702500</v>
       </c>
       <c r="H47" s="3">
-        <v>2999100</v>
+        <v>2935000</v>
       </c>
       <c r="I47" s="3">
-        <v>2892500</v>
+        <v>2830600</v>
       </c>
       <c r="J47" s="3">
-        <v>6711700</v>
+        <v>6568200</v>
       </c>
       <c r="K47" s="3">
         <v>3395800</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12744700</v>
+        <v>24944400</v>
       </c>
       <c r="E48" s="3">
-        <v>12473200</v>
+        <v>12206500</v>
       </c>
       <c r="F48" s="3">
-        <v>10358200</v>
+        <v>10136700</v>
       </c>
       <c r="G48" s="3">
-        <v>21434500</v>
+        <v>20976200</v>
       </c>
       <c r="H48" s="3">
-        <v>9781500</v>
+        <v>9572400</v>
       </c>
       <c r="I48" s="3">
-        <v>9485300</v>
+        <v>9282500</v>
       </c>
       <c r="J48" s="3">
-        <v>19787400</v>
+        <v>19364300</v>
       </c>
       <c r="K48" s="3">
         <v>9226100</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19588800</v>
+        <v>38340000</v>
       </c>
       <c r="E49" s="3">
-        <v>19825600</v>
+        <v>19401700</v>
       </c>
       <c r="F49" s="3">
-        <v>19549600</v>
+        <v>19131600</v>
       </c>
       <c r="G49" s="3">
-        <v>40802300</v>
+        <v>39929900</v>
       </c>
       <c r="H49" s="3">
-        <v>18334400</v>
+        <v>17942400</v>
       </c>
       <c r="I49" s="3">
-        <v>17877800</v>
+        <v>17495500</v>
       </c>
       <c r="J49" s="3">
-        <v>39733000</v>
+        <v>38883500</v>
       </c>
       <c r="K49" s="3">
         <v>12718200</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1431700</v>
+        <v>2745000</v>
       </c>
       <c r="E52" s="3">
-        <v>1601100</v>
+        <v>1566800</v>
       </c>
       <c r="F52" s="3">
-        <v>1889400</v>
+        <v>1849000</v>
       </c>
       <c r="G52" s="3">
-        <v>2036400</v>
+        <v>1700800</v>
       </c>
       <c r="H52" s="3">
-        <v>1135500</v>
+        <v>1111200</v>
       </c>
       <c r="I52" s="3">
-        <v>982900</v>
+        <v>961800</v>
       </c>
       <c r="J52" s="3">
-        <v>2080200</v>
+        <v>2035700</v>
       </c>
       <c r="K52" s="3">
         <v>975400</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47074200</v>
+        <v>46281800</v>
       </c>
       <c r="E54" s="3">
-        <v>46039700</v>
+        <v>45055300</v>
       </c>
       <c r="F54" s="3">
-        <v>44117800</v>
+        <v>43174500</v>
       </c>
       <c r="G54" s="3">
-        <v>45016500</v>
+        <v>44054000</v>
       </c>
       <c r="H54" s="3">
-        <v>39078900</v>
+        <v>38243300</v>
       </c>
       <c r="I54" s="3">
-        <v>37403800</v>
+        <v>36604000</v>
       </c>
       <c r="J54" s="3">
-        <v>40369200</v>
+        <v>39506000</v>
       </c>
       <c r="K54" s="3">
         <v>31841900</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4505900</v>
+        <v>11975900</v>
       </c>
       <c r="E57" s="3">
-        <v>3848400</v>
+        <v>3766100</v>
       </c>
       <c r="F57" s="3">
-        <v>3291900</v>
+        <v>3221500</v>
       </c>
       <c r="G57" s="3">
-        <v>9884700</v>
+        <v>9673400</v>
       </c>
       <c r="H57" s="3">
-        <v>2624300</v>
+        <v>2568200</v>
       </c>
       <c r="I57" s="3">
-        <v>2401100</v>
+        <v>2349700</v>
       </c>
       <c r="J57" s="3">
-        <v>5035500</v>
+        <v>4927800</v>
       </c>
       <c r="K57" s="3">
         <v>2358200</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2645700</v>
+        <v>2589100</v>
       </c>
       <c r="E58" s="3">
-        <v>3603800</v>
+        <v>3526800</v>
       </c>
       <c r="F58" s="3">
-        <v>4095300</v>
+        <v>4007700</v>
       </c>
       <c r="G58" s="3">
-        <v>6450300</v>
+        <v>6312400</v>
       </c>
       <c r="H58" s="3">
-        <v>2542400</v>
+        <v>2488100</v>
       </c>
       <c r="I58" s="3">
-        <v>2662500</v>
+        <v>2605600</v>
       </c>
       <c r="J58" s="3">
-        <v>4068300</v>
+        <v>3981300</v>
       </c>
       <c r="K58" s="3">
         <v>867400</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4573200</v>
+        <v>4452400</v>
       </c>
       <c r="E59" s="3">
-        <v>4281500</v>
+        <v>4190000</v>
       </c>
       <c r="F59" s="3">
-        <v>4278100</v>
+        <v>4186700</v>
       </c>
       <c r="G59" s="3">
-        <v>4241100</v>
+        <v>4150400</v>
       </c>
       <c r="H59" s="3">
-        <v>4406100</v>
+        <v>4311800</v>
       </c>
       <c r="I59" s="3">
-        <v>3915700</v>
+        <v>3832000</v>
       </c>
       <c r="J59" s="3">
-        <v>8412700</v>
+        <v>8232800</v>
       </c>
       <c r="K59" s="3">
         <v>4003900</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11724800</v>
+        <v>11451000</v>
       </c>
       <c r="E60" s="3">
-        <v>11733800</v>
+        <v>11482900</v>
       </c>
       <c r="F60" s="3">
-        <v>11665300</v>
+        <v>11415900</v>
       </c>
       <c r="G60" s="3">
-        <v>12256600</v>
+        <v>11994600</v>
       </c>
       <c r="H60" s="3">
-        <v>9572800</v>
+        <v>9368100</v>
       </c>
       <c r="I60" s="3">
-        <v>8979300</v>
+        <v>8787300</v>
       </c>
       <c r="J60" s="3">
-        <v>8765000</v>
+        <v>8577600</v>
       </c>
       <c r="K60" s="3">
         <v>7229500</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14168500</v>
+        <v>13865500</v>
       </c>
       <c r="E61" s="3">
-        <v>13650100</v>
+        <v>13358300</v>
       </c>
       <c r="F61" s="3">
-        <v>12279100</v>
+        <v>12016500</v>
       </c>
       <c r="G61" s="3">
-        <v>11922300</v>
+        <v>11667300</v>
       </c>
       <c r="H61" s="3">
-        <v>10648800</v>
+        <v>10421100</v>
       </c>
       <c r="I61" s="3">
-        <v>10992100</v>
+        <v>10757100</v>
       </c>
       <c r="J61" s="3">
-        <v>12684100</v>
+        <v>12412900</v>
       </c>
       <c r="K61" s="3">
         <v>9416300</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3745200</v>
+        <v>4646700</v>
       </c>
       <c r="E62" s="3">
-        <v>4363400</v>
+        <v>4270100</v>
       </c>
       <c r="F62" s="3">
-        <v>3822600</v>
+        <v>3740900</v>
       </c>
       <c r="G62" s="3">
-        <v>4288200</v>
+        <v>4196600</v>
       </c>
       <c r="H62" s="3">
-        <v>3764300</v>
+        <v>3683800</v>
       </c>
       <c r="I62" s="3">
-        <v>3569100</v>
+        <v>3492700</v>
       </c>
       <c r="J62" s="3">
-        <v>9143100</v>
+        <v>8947600</v>
       </c>
       <c r="K62" s="3">
         <v>3350100</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30964700</v>
+        <v>30333300</v>
       </c>
       <c r="E66" s="3">
-        <v>31093700</v>
+        <v>30428900</v>
       </c>
       <c r="F66" s="3">
-        <v>29264900</v>
+        <v>28639100</v>
       </c>
       <c r="G66" s="3">
-        <v>29830300</v>
+        <v>29192500</v>
       </c>
       <c r="H66" s="3">
-        <v>25156100</v>
+        <v>24618300</v>
       </c>
       <c r="I66" s="3">
-        <v>24610900</v>
+        <v>24084600</v>
       </c>
       <c r="J66" s="3">
-        <v>27203800</v>
+        <v>26622100</v>
       </c>
       <c r="K66" s="3">
         <v>20369100</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15826800</v>
+        <v>15693700</v>
       </c>
       <c r="E72" s="3">
-        <v>14349100</v>
+        <v>14042300</v>
       </c>
       <c r="F72" s="3">
-        <v>13044300</v>
+        <v>12765300</v>
       </c>
       <c r="G72" s="3">
-        <v>11927900</v>
+        <v>11672800</v>
       </c>
       <c r="H72" s="3">
-        <v>11170500</v>
+        <v>10931700</v>
       </c>
       <c r="I72" s="3">
-        <v>10593800</v>
+        <v>10367300</v>
       </c>
       <c r="J72" s="3">
-        <v>19250000</v>
+        <v>18838400</v>
       </c>
       <c r="K72" s="3">
         <v>8026500</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16109500</v>
+        <v>15948500</v>
       </c>
       <c r="E76" s="3">
-        <v>14946000</v>
+        <v>14626500</v>
       </c>
       <c r="F76" s="3">
-        <v>14852900</v>
+        <v>14535300</v>
       </c>
       <c r="G76" s="3">
-        <v>15186100</v>
+        <v>14861400</v>
       </c>
       <c r="H76" s="3">
-        <v>13922800</v>
+        <v>13625100</v>
       </c>
       <c r="I76" s="3">
-        <v>12792900</v>
+        <v>12519400</v>
       </c>
       <c r="J76" s="3">
-        <v>13165400</v>
+        <v>12883900</v>
       </c>
       <c r="K76" s="3">
         <v>11472800</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2135100</v>
+        <v>2089500</v>
       </c>
       <c r="E81" s="3">
-        <v>2171100</v>
+        <v>2124600</v>
       </c>
       <c r="F81" s="3">
-        <v>1727900</v>
+        <v>1690900</v>
       </c>
       <c r="G81" s="3">
-        <v>2122800</v>
+        <v>2077400</v>
       </c>
       <c r="H81" s="3">
-        <v>1700900</v>
+        <v>1664600</v>
       </c>
       <c r="I81" s="3">
-        <v>1530400</v>
+        <v>1497700</v>
       </c>
       <c r="J81" s="3">
-        <v>3269500</v>
+        <v>3199600</v>
       </c>
       <c r="K81" s="3">
         <v>1678500</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1899500</v>
+        <v>1858900</v>
       </c>
       <c r="E83" s="3">
-        <v>1780600</v>
+        <v>1742500</v>
       </c>
       <c r="F83" s="3">
-        <v>2038700</v>
+        <v>1995100</v>
       </c>
       <c r="G83" s="3">
-        <v>1788500</v>
+        <v>1750200</v>
       </c>
       <c r="H83" s="3">
-        <v>1612300</v>
+        <v>1577800</v>
       </c>
       <c r="I83" s="3">
-        <v>1773900</v>
+        <v>1735900</v>
       </c>
       <c r="J83" s="3">
-        <v>1476500</v>
+        <v>1445000</v>
       </c>
       <c r="K83" s="3">
         <v>1371000</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4923300</v>
+        <v>4818000</v>
       </c>
       <c r="E89" s="3">
-        <v>4355600</v>
+        <v>4262400</v>
       </c>
       <c r="F89" s="3">
-        <v>4171600</v>
+        <v>4082400</v>
       </c>
       <c r="G89" s="3">
-        <v>3914600</v>
+        <v>3830900</v>
       </c>
       <c r="H89" s="3">
-        <v>3431000</v>
+        <v>3357700</v>
       </c>
       <c r="I89" s="3">
-        <v>3269500</v>
+        <v>3199600</v>
       </c>
       <c r="J89" s="3">
-        <v>3023800</v>
+        <v>2959100</v>
       </c>
       <c r="K89" s="3">
         <v>3417000</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2118300</v>
+        <v>-2073000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1902900</v>
+        <v>-1862200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1971300</v>
+        <v>-1929200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1837800</v>
+        <v>-1798500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1676300</v>
+        <v>-1640400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1536000</v>
+        <v>-1503200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1312700</v>
+        <v>-1284700</v>
       </c>
       <c r="K91" s="3">
         <v>-1004800</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2642300</v>
+        <v>-2585800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3326700</v>
+        <v>-3255600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2251800</v>
+        <v>-2203700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2315800</v>
+        <v>-2266300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1877100</v>
+        <v>-1837000</v>
       </c>
       <c r="I94" s="3">
-        <v>-943600</v>
+        <v>-923400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6311200</v>
+        <v>-6176300</v>
       </c>
       <c r="K94" s="3">
         <v>-2060000</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1223000</v>
+        <v>-1196800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1134300</v>
+        <v>-1110100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1156800</v>
+        <v>-1132000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1019900</v>
+        <v>-998100</v>
       </c>
       <c r="H96" s="3">
-        <v>-811200</v>
+        <v>-793900</v>
       </c>
       <c r="I96" s="3">
-        <v>-796600</v>
+        <v>-779600</v>
       </c>
       <c r="J96" s="3">
-        <v>-677700</v>
+        <v>-663200</v>
       </c>
       <c r="K96" s="3">
         <v>-680800</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1085000</v>
+        <v>-1061800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1083800</v>
+        <v>-1060700</v>
       </c>
       <c r="F100" s="3">
-        <v>-754000</v>
+        <v>-737900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1316100</v>
+        <v>-1288000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2752200</v>
+        <v>-2693400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1965700</v>
+        <v>-1923700</v>
       </c>
       <c r="J100" s="3">
-        <v>3428800</v>
+        <v>3355500</v>
       </c>
       <c r="K100" s="3">
         <v>-1213700</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
-        <v>-157100</v>
+        <v>-153700</v>
       </c>
       <c r="F101" s="3">
-        <v>50500</v>
+        <v>49400</v>
       </c>
       <c r="G101" s="3">
-        <v>-48200</v>
+        <v>-47200</v>
       </c>
       <c r="H101" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="I101" s="3">
-        <v>-61700</v>
+        <v>-60400</v>
       </c>
       <c r="J101" s="3">
-        <v>127900</v>
+        <v>125200</v>
       </c>
       <c r="K101" s="3">
         <v>7000</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1201700</v>
+        <v>1176000</v>
       </c>
       <c r="E102" s="3">
-        <v>-212100</v>
+        <v>-207500</v>
       </c>
       <c r="F102" s="3">
-        <v>1216200</v>
+        <v>1190200</v>
       </c>
       <c r="G102" s="3">
-        <v>234500</v>
+        <v>229500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1165700</v>
+        <v>-1140800</v>
       </c>
       <c r="I102" s="3">
-        <v>298400</v>
+        <v>292100</v>
       </c>
       <c r="J102" s="3">
-        <v>269300</v>
+        <v>263500</v>
       </c>
       <c r="K102" s="3">
         <v>150200</v>
